--- a/src/data/out/people.xlsx
+++ b/src/data/out/people.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +413,54 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SPB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Moscow</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/data/out/people.xlsx
+++ b/src/data/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,32 +429,49 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SPB</t>
+          <t>city</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SPB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Moscow</t>
         </is>
